--- a/Descargas/R15_5º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_5º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B60" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
